--- a/wortschatz-m/b-der-mensch.xlsx
+++ b/wortschatz-m/b-der-mensch.xlsx
@@ -268,12 +268,6 @@
     <t>porządny, solidny (człowiek)</t>
   </si>
   <si>
-    <t>unausgeglichen</t>
-  </si>
-  <si>
-    <t>niezrównoważony (człowiek)</t>
-  </si>
-  <si>
     <t>stur wie ein Bock</t>
   </si>
   <si>
@@ -703,9 +697,6 @@
     <t>Es fuchst mich.</t>
   </si>
   <si>
-    <t>Der weg durch den Wald ist mir nachts nicht geheuer.</t>
-  </si>
-  <si>
     <t>erschöpft sein</t>
   </si>
   <si>
@@ -1121,6 +1112,15 @@
   </si>
   <si>
     <t>czuły</t>
+  </si>
+  <si>
+    <t>ausgeglichen//unausgeglichen</t>
+  </si>
+  <si>
+    <t>zrównoważony//niezrównoważony (człowiek)</t>
+  </si>
+  <si>
+    <t>Der weg durch den Wald ist mir nicht geheuer.</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1469,26 +1469,26 @@
   <sheetData>
     <row r="1" spans="2:3" ht="14.55" customHeight="1">
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="14.55" customHeight="1">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="14.55" customHeight="1">
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="14.55" customHeight="1">
@@ -1557,10 +1557,10 @@
     </row>
     <row r="12" spans="2:3" ht="14.55" customHeight="1">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="14.55" customHeight="1">
@@ -1581,10 +1581,10 @@
     </row>
     <row r="15" spans="2:3" ht="14.55" customHeight="1">
       <c r="B15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="14.55" customHeight="1">
@@ -1670,50 +1670,50 @@
     </row>
     <row r="25" spans="1:3" ht="14.55" customHeight="1">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.55" customHeight="1">
       <c r="B26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.55" customHeight="1">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.55" customHeight="1">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.55" customHeight="1">
       <c r="B29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.55" customHeight="1">
       <c r="B30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.55" customHeight="1">
@@ -1726,10 +1726,10 @@
     </row>
     <row r="32" spans="1:3" ht="14.55" customHeight="1">
       <c r="B32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.55" customHeight="1">
@@ -1737,10 +1737,10 @@
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.55" customHeight="1">
@@ -1785,34 +1785,34 @@
     </row>
     <row r="39" spans="1:3" ht="14.55" customHeight="1">
       <c r="B39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.55" customHeight="1">
       <c r="B40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.55" customHeight="1">
       <c r="B41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.55" customHeight="1">
       <c r="B42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.55" customHeight="1">
@@ -1825,98 +1825,98 @@
     </row>
     <row r="44" spans="1:3" ht="14.55" customHeight="1">
       <c r="B44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.55" customHeight="1">
       <c r="B45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.55" customHeight="1">
       <c r="B46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.55" customHeight="1">
       <c r="B47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.55" customHeight="1">
       <c r="B48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.55" customHeight="1">
       <c r="B49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.55" customHeight="1">
       <c r="B50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.55" customHeight="1">
       <c r="B51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.55" customHeight="1">
       <c r="B52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.55" customHeight="1">
       <c r="B53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.55" customHeight="1">
       <c r="B54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.55" customHeight="1">
       <c r="B55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.55" customHeight="1">
@@ -1924,82 +1924,82 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C56" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.55" customHeight="1">
       <c r="B57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.55" customHeight="1">
       <c r="B58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.55" customHeight="1">
       <c r="B59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.55" customHeight="1">
       <c r="B60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.55" customHeight="1">
       <c r="B61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.55" customHeight="1">
       <c r="B62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.55" customHeight="1">
       <c r="B63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.55" customHeight="1">
       <c r="B64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.55" customHeight="1">
       <c r="B65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.55" customHeight="1">
@@ -2071,10 +2071,10 @@
     </row>
     <row r="74" spans="1:3" ht="14.55" customHeight="1">
       <c r="B74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.55" customHeight="1">
@@ -2135,114 +2135,114 @@
     </row>
     <row r="82" spans="1:3" ht="14.55" customHeight="1">
       <c r="B82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.55" customHeight="1">
       <c r="B83" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.55" customHeight="1">
       <c r="B84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.55" customHeight="1">
       <c r="B85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.55" customHeight="1">
       <c r="B86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.55" customHeight="1">
       <c r="B87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.55" customHeight="1">
       <c r="B88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.55" customHeight="1">
       <c r="B89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.55" customHeight="1">
       <c r="B90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.55" customHeight="1">
       <c r="B91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.55" customHeight="1">
       <c r="B92" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.55" customHeight="1">
       <c r="B93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.55" customHeight="1">
       <c r="B94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2250,66 +2250,66 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="B97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="B98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="B99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="B100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="B101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="B102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="B103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2317,85 +2317,85 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="B110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C111" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C113" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2403,58 +2403,58 @@
         <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="B115" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="B116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="B117" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="B118" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C118" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="B119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="B120" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C120" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2462,10 +2462,10 @@
         <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C121" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2473,26 +2473,26 @@
         <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="B123" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="B124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2500,10 +2500,10 @@
         <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2511,10 +2511,10 @@
         <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2522,10 +2522,10 @@
         <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2533,18 +2533,18 @@
         <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C128" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2596,26 +2596,26 @@
         <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C134" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="B135" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="1" customFormat="1">
       <c r="B136" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2623,106 +2623,106 @@
         <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="B138" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="B139" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="B140" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C140" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="B141" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C141" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="B142" t="s">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="C142" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="B143" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C143" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="B144" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="B145" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C145" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="B146" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="B148" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C148" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="B149" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2730,10 +2730,10 @@
         <v>32</v>
       </c>
       <c r="B150" t="s">
+        <v>236</v>
+      </c>
+      <c r="C150" t="s">
         <v>239</v>
-      </c>
-      <c r="C150" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2741,240 +2741,240 @@
         <v>65</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C152" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C153" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="B154" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C154" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="B155" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C155" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="B156" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="B157" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:3" s="1" customFormat="1">
       <c r="B158" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="B159" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="B160" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="B177" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="B178" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="B179" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2982,10 +2982,10 @@
         <v>32</v>
       </c>
       <c r="B180" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2993,26 +2993,26 @@
         <v>32</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="B182" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="B183" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
